--- a/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
@@ -506,10 +506,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.657</v>
+        <v>0.312</v>
       </c>
       <c r="C4" t="n">
-        <v>0.657</v>
+        <v>0.312</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.663</v>
+        <v>0.261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.663</v>
+        <v>0.261</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -538,10 +538,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.259</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -633,22 +633,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.938537780049955</v>
+        <v>1.901115281973034</v>
       </c>
       <c r="C4" t="n">
-        <v>1.915105780179147</v>
+        <v>1.909570156945847</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.21</v>
+        <v>0.44</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2697413654964873</v>
+        <v>0.1635840287303459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2338342590546734</v>
+        <v>0.2075245363614316</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.31</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.854</v>
+        <v>4.794</v>
       </c>
       <c r="C5" t="n">
-        <v>10.854</v>
+        <v>4.794</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.91135367479838</v>
+        <v>17.30917523031176</v>
       </c>
       <c r="C6" t="n">
-        <v>16.93417462141738</v>
+        <v>17.34010263068564</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.46</v>
+        <v>0.18</v>
       </c>
       <c r="E6" t="n">
-        <v>6.0313258300942</v>
+        <v>1.232325541490274</v>
       </c>
       <c r="F6" t="n">
-        <v>1.102235264749449</v>
+        <v>1.313031500081792</v>
       </c>
       <c r="G6" t="n">
-        <v>-81.72</v>
+        <v>6.55</v>
       </c>
     </row>
   </sheetData>

--- a/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
+++ b/results/ResNet18/CIFAR10/low-rank_quant-qat_pruning_quant-dynamic/3_quant-dynamic_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -574,13 +576,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -595,7 +597,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -610,7 +612,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -672,7 +674,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
